--- a/writable/Report_PO_TES.xlsx
+++ b/writable/Report_PO_TES.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>REPORT SCAN BARCODE</t>
   </si>
@@ -29,9 +29,6 @@
     <t>: TES</t>
   </si>
   <si>
-    <t>: TES 123</t>
-  </si>
-  <si>
     <t>Qty Scan</t>
   </si>
   <si>
@@ -41,13 +38,10 @@
     <t>Qty Tidak Sesuai</t>
   </si>
   <si>
-    <t>: 27</t>
-  </si>
-  <si>
-    <t>: 6</t>
-  </si>
-  <si>
-    <t>: 12</t>
+    <t>: 4</t>
+  </si>
+  <si>
+    <t>: 2</t>
   </si>
   <si>
     <t>No</t>
@@ -68,16 +62,13 @@
     <t>Status</t>
   </si>
   <si>
-    <t>CEK</t>
+    <t>BISMI</t>
+  </si>
+  <si>
+    <t>Barcode Sesuai</t>
   </si>
   <si>
     <t>Barcode Tidak Sesuai</t>
-  </si>
-  <si>
-    <t>Barcode Sesuai</t>
-  </si>
-  <si>
-    <t>COBA</t>
   </si>
 </sst>
 </file>
@@ -457,10 +448,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A33" sqref="A33:F33"/>
+      <selection activeCell="A10" sqref="A10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -478,10 +469,10 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -489,41 +480,41 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="E5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -531,19 +522,19 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="3">
         <v>1234</v>
       </c>
       <c r="D7" s="3">
-        <v>8991389241592</v>
+        <v>8997205140049</v>
       </c>
       <c r="E7" s="3">
-        <v>8995757000835</v>
+        <v>8997205140049</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -551,19 +542,19 @@
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" s="3">
         <v>1234</v>
       </c>
       <c r="D8" s="3">
-        <v>8991389241592</v>
+        <v>8997205140049</v>
       </c>
       <c r="E8" s="3">
         <v>8992759170580</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -571,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" s="3">
         <v>1234</v>
       </c>
       <c r="D9" s="3">
-        <v>8991389241592</v>
+        <v>8997205140049</v>
       </c>
       <c r="E9" s="3">
-        <v>8991389241592</v>
+        <v>8992759170580</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -591,461 +582,19 @@
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C10" s="3">
-        <v>4321</v>
+        <v>1234</v>
       </c>
       <c r="D10" s="3">
-        <v>8995757000835</v>
+        <v>8997205140049</v>
       </c>
       <c r="E10" s="3">
-        <v>8991389241592</v>
-      </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="3">
-        <v>5</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="3">
-        <v>4321</v>
-      </c>
-      <c r="D11" s="3">
-        <v>8995757000835</v>
-      </c>
-      <c r="E11" s="3">
-        <v>8991389241592</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="3">
-        <v>6</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="3">
-        <v>4321</v>
-      </c>
-      <c r="D12" s="3">
-        <v>8995757000835</v>
-      </c>
-      <c r="E12" s="3">
-        <v>8995757000835</v>
-      </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="3">
-        <v>7</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="3">
-        <v>4321</v>
-      </c>
-      <c r="D13" s="3">
-        <v>8995757000835</v>
-      </c>
-      <c r="E13" s="3">
-        <v>8995757000835</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="3">
-        <v>8</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="3">
-        <v>4321</v>
-      </c>
-      <c r="D14" s="3">
-        <v>8995757000835</v>
-      </c>
-      <c r="E14" s="3">
-        <v>8995757000835</v>
-      </c>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="3">
-        <v>9</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="3">
-        <v>4321</v>
-      </c>
-      <c r="D15" s="3">
-        <v>8995757000835</v>
-      </c>
-      <c r="E15" s="3">
-        <v>8995757000835</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="3">
-        <v>10</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="3">
-        <v>4321</v>
-      </c>
-      <c r="D16" s="3">
-        <v>8995757000835</v>
-      </c>
-      <c r="E16" s="3">
-        <v>8992759170580</v>
-      </c>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="3">
-        <v>11</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="3">
-        <v>4321</v>
-      </c>
-      <c r="D17" s="3">
-        <v>8995757000835</v>
-      </c>
-      <c r="E17" s="3">
-        <v>8992759170580</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="3">
-        <v>12</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="3">
-        <v>4321</v>
-      </c>
-      <c r="D18" s="3">
-        <v>8995757000835</v>
-      </c>
-      <c r="E18" s="3">
-        <v>8995757000835</v>
-      </c>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="3">
-        <v>13</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="3">
-        <v>4321</v>
-      </c>
-      <c r="D19" s="3">
-        <v>8995757000835</v>
-      </c>
-      <c r="E19" s="3">
-        <v>8995757000835</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="3">
-        <v>14</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="3">
-        <v>4321</v>
-      </c>
-      <c r="D20" s="3">
-        <v>8995757000835</v>
-      </c>
-      <c r="E20" s="3">
-        <v>8991389241592</v>
-      </c>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="3">
-        <v>15</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="3">
-        <v>4321</v>
-      </c>
-      <c r="D21" s="3">
-        <v>8995757000835</v>
-      </c>
-      <c r="E21" s="3">
-        <v>8991389241592</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="3">
+        <v>8997205140049</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="3">
-        <v>4321</v>
-      </c>
-      <c r="D22" s="3">
-        <v>8995757000835</v>
-      </c>
-      <c r="E22" s="3">
-        <v>8991389241592</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="3">
-        <v>17</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="3">
-        <v>4321</v>
-      </c>
-      <c r="D23" s="3">
-        <v>8995757000835</v>
-      </c>
-      <c r="E23" s="3">
-        <v>8992759170580</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="3">
-        <v>18</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="3">
-        <v>4321</v>
-      </c>
-      <c r="D24" s="3">
-        <v>8991389241592</v>
-      </c>
-      <c r="E24" s="3">
-        <v>8992759170580</v>
-      </c>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="3">
-        <v>19</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="3">
-        <v>4321</v>
-      </c>
-      <c r="D25" s="3">
-        <v>8991389241592</v>
-      </c>
-      <c r="E25" s="3">
-        <v>8992759170580</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="3">
-        <v>20</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="3">
-        <v>4321</v>
-      </c>
-      <c r="D26" s="3">
-        <v>8991389241592</v>
-      </c>
-      <c r="E26" s="3">
-        <v>8995757000835</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="3">
-        <v>21</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="3">
-        <v>4321</v>
-      </c>
-      <c r="D27" s="3">
-        <v>8991389241592</v>
-      </c>
-      <c r="E27" s="3">
-        <v>8991389241592</v>
-      </c>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="3">
-        <v>22</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="3">
-        <v>4321</v>
-      </c>
-      <c r="D28" s="3">
-        <v>8991389241592</v>
-      </c>
-      <c r="E28" s="3">
-        <v>8991389241592</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="3">
-        <v>23</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="3">
-        <v>4321</v>
-      </c>
-      <c r="D29" s="3">
-        <v>8992759170580</v>
-      </c>
-      <c r="E29" s="3">
-        <v>8995757000835</v>
-      </c>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="3">
-        <v>24</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="3">
-        <v>4321</v>
-      </c>
-      <c r="D30" s="3">
-        <v>8992759170580</v>
-      </c>
-      <c r="E30" s="3">
-        <v>8995757000835</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="3">
-        <v>25</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="3">
-        <v>4321</v>
-      </c>
-      <c r="D31" s="3">
-        <v>8992759170580</v>
-      </c>
-      <c r="E31" s="3">
-        <v>8995757000835</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="3">
-        <v>26</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="3">
-        <v>4321</v>
-      </c>
-      <c r="D32" s="3">
-        <v>8992759170580</v>
-      </c>
-      <c r="E32" s="3">
-        <v>8992759170580</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="3">
-        <v>27</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="3">
-        <v>4321</v>
-      </c>
-      <c r="D33" s="3">
-        <v>8992759170580</v>
-      </c>
-      <c r="E33" s="3">
-        <v>8991389241592</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
